--- a/source/_posts/collection/IE方法总结.xlsx
+++ b/source/_posts/collection/IE方法总结.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/liuxiyang641.github.io/source/_posts/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892B5752-1F1A-FF41-A649-209FFE29A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DA2C7-F719-C64D-9D88-A1891462BA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="数据增强IE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="466">
   <si>
     <t>Method</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>RE: TACRED/RE-TACRED/SemEval 2010 Task 8</t>
   </si>
   <si>
-    <t>https://github.com/THU-BPM/SelfLRE.</t>
-  </si>
-  <si>
     <t>带有实体标注的句子，但没有relation标注</t>
   </si>
   <si>
@@ -1384,9 +1381,6 @@
     <t>ProGen</t>
   </si>
   <si>
-    <t>ProGen: Progressive Zero-shot Dataset Generation via In-context Feedback. The University of Hong Kong</t>
-  </si>
-  <si>
     <t>之前ZeroGen方法首先提出利用task description作为prompt进行zero-shot数据增强。但是这种方法最大的问题是生成数据的low-quality。由于low informativeness，redundancy等问题，生成更多的数据不一定带来性能提升</t>
   </si>
   <si>
@@ -1397,6 +1391,108 @@
   </si>
   <si>
     <t>https://github.com/HKUNLP/ProGen</t>
+  </si>
+  <si>
+    <t>PromptMix</t>
+  </si>
+  <si>
+    <t>PromptMix: A Class Boundary Augmentation Method for Large Language Model Distillation</t>
+  </si>
+  <si>
+    <t>https://github.com/ ServiceNow/PromptMix-EMNLP-2023</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t>GPT-3.5-Turbo
+Llama2 (7/13/70B)</t>
+  </si>
+  <si>
+    <t>已经出现的prompt-based的LLM做数据增强的方法只考虑使用单个class的信息来进行生成，这样无法生成能够处于class boundary上的hard samples</t>
+  </si>
+  <si>
+    <t>一次给LLM提供多个class的信息，并且要求生成的data需要能够同时包含两个class的信息，让生成的数据能够处在class boundary上</t>
+  </si>
+  <si>
+    <t>2-shot ICL/zero-shot ICL</t>
+  </si>
+  <si>
+    <t>ProGen: Progressive Zero-shot Dataset Generation via In-context Feedback</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>Mixture of Soft Prompts for Controllable Data Generation</t>
+  </si>
+  <si>
+    <t>FLAN-T5-XXL (11B)</t>
+  </si>
+  <si>
+    <t>为数据集中的每一个attribute（在论文中就是指label）都学习一个对应的soft prompt；由于一个句子可能有多个labels，设计了混合soft prompts的策略来生成最后的data</t>
+  </si>
+  <si>
+    <t>finetuning soft prompt</t>
+  </si>
+  <si>
+    <t>如何利用LLM来作为工具为具有多个attributes的数据生成更多fluent的text</t>
+  </si>
+  <si>
+    <t>https://github.com/derekchen14/mixture_soft_prompts</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Let’s Synthesize Step by Step: Iterative Dataset Synthesis with Large Language Models by Extrapolating Errors from Small Models</t>
+  </si>
+  <si>
+    <t>EMNLP 2023 Findings</t>
+  </si>
+  <si>
+    <t>如何提高生成数据的质量，减小和real data之间的distributional discrepancy</t>
+  </si>
+  <si>
+    <t>利用LLM生成数据，训练好的task model，在gold data上预测错误的samples，来反映生成data和real data之间的差异。让LLM模仿这些被错误预测的samples生成更多的数据，重新训练task model</t>
+  </si>
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>GPT-3.5</t>
+  </si>
+  <si>
+    <t>text classification
+NLI
+QA</t>
+  </si>
+  <si>
+    <t>https://github.com/RickySkywalker/Synthesis_Step-by-Step_Official</t>
+  </si>
+  <si>
+    <t>HKUST</t>
+  </si>
+  <si>
+    <t>https://github.com/THU-BPM/SelfLRE</t>
+  </si>
+  <si>
+    <t>RE: TACRED/RE-TACRED/TACREV/SemEval 2010 Task 8/ChemProt/Wiki80</t>
+  </si>
+  <si>
+    <t>"从两个角度利用LLM进行RE任务：
+1. 基于ICL直接进行RE
+2. 数据增强，微调小模型"</t>
+  </si>
+  <si>
+    <t>TYP Marker
+KnowPrompt</t>
+  </si>
+  <si>
+    <t>头尾实体和对应entity type、relation label和对应的sentence</t>
   </si>
 </sst>
 </file>
@@ -1903,11 +1999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0BBDD-CE05-684E-8935-EAEB397263C2}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,7 +2451,7 @@
         <v>222</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>220</v>
@@ -2437,7 +2533,7 @@
         <v>276</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>244</v>
@@ -2449,7 +2545,7 @@
         <v>126</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>155</v>
+        <v>462</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>150</v>
@@ -2551,7 +2647,7 @@
         <v>290</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>303</v>
@@ -2639,7 +2735,7 @@
         <v>312</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>213</v>
@@ -2654,14 +2750,56 @@
         <v>314</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>284</v>
       </c>
     </row>
+    <row r="21" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2669,9 +2807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566FED72-3A6F-A240-8870-093CCB6D9347}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,16 +3374,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B762F-C390-9645-A1C0-E62769DF1599}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3297,63 +3436,63 @@
     </row>
     <row r="2" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="J2" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="I3" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>104</v>
@@ -3361,112 +3500,112 @@
     </row>
     <row r="4" spans="1:10" ht="126" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>348</v>
-      </c>
       <c r="C5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>68</v>
       </c>
       <c r="I5" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="F6" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>96</v>
@@ -3475,295 +3614,391 @@
         <v>115</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>311</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>379</v>
-      </c>
       <c r="C9" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="G9" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>388</v>
-      </c>
       <c r="C10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>327</v>
+        <v>403</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>168</v>
+        <v>405</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>407</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>408</v>
-      </c>
       <c r="J12" s="8" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="70" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="F15" s="34" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="126" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F16" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="35" t="s">
+      <c r="B17" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>370</v>
+      <c r="C17" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/source/_posts/collection/IE方法总结.xlsx
+++ b/source/_posts/collection/IE方法总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/liuxiyang641.github.io/source/_posts/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DA2C7-F719-C64D-9D88-A1891462BA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA264CA5-1573-E64B-BF64-8BE7A84447A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="LLM-IE" sheetId="2" r:id="rId2"/>
     <sheet name="LLM-DA" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2002,8 +2002,8 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2807,9 +2807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566FED72-3A6F-A240-8870-093CCB6D9347}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/_posts/collection/IE方法总结.xlsx
+++ b/source/_posts/collection/IE方法总结.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/liuxiyang641.github.io/source/_posts/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA264CA5-1573-E64B-BF64-8BE7A84447A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC85F6-BC68-5F41-B1DC-F37B4C1C0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="数据增强IE" sheetId="1" r:id="rId1"/>
-    <sheet name="LLM-IE" sheetId="2" r:id="rId2"/>
-    <sheet name="LLM-DA" sheetId="3" r:id="rId3"/>
+    <sheet name="Rule-IE" sheetId="6" r:id="rId2"/>
+    <sheet name="LLM-IE" sheetId="2" r:id="rId3"/>
+    <sheet name="LLM-DA" sheetId="3" r:id="rId4"/>
+    <sheet name="OpenIE" sheetId="4" r:id="rId5"/>
+    <sheet name="CodeIE" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="667">
   <si>
     <t>Method</t>
   </si>
@@ -291,10 +294,6 @@
   <si>
     <t>code-davinci-002
 text-davinci-002</t>
-  </si>
-  <si>
-    <t>NER: CoNLL03/ACE04/ACE05-E
-RE: CoNLL04/ACE05-R/NYT/SciERC</t>
   </si>
   <si>
     <t>Code4Struct: Code Generation for Few-Shot Event Structure Prediction</t>
@@ -663,9 +662,6 @@
     <t>How to Unleash the Power of Large Language Models for Few-shot Relation Extraction?</t>
   </si>
   <si>
-    <t>UnleashLLM</t>
-  </si>
-  <si>
     <t>SustaiNLP 2023</t>
   </si>
   <si>
@@ -686,9 +682,6 @@
 2. 数据增强，微调小模型</t>
   </si>
   <si>
-    <t>利用LLM生成为什么选择某个relation而不是另一个相似relation的contrastive rationales，然后使用这个rationales基于多任务训练一个小模型</t>
-  </si>
-  <si>
     <t>利用LLM来生成RE任务的训练数据，训练小模型时使用两个阶段的训练过程利用生成数据</t>
   </si>
   <si>
@@ -1493,13 +1486,679 @@
   </si>
   <si>
     <t>头尾实体和对应entity type、relation label和对应的sentence</t>
+  </si>
+  <si>
+    <t>UniversalNER: Targeted Distillation from Large Language Models for Open Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>UniversalNER</t>
+  </si>
+  <si>
+    <t>让更小的LLM学会在不同任务上都学会更好的instruction跟随能力是不实际的，应该让LLM关注某一类instruction</t>
+  </si>
+  <si>
+    <t>Instruction tuning</t>
+  </si>
+  <si>
+    <t>LLaMA 7B/13B</t>
+  </si>
+  <si>
+    <t>Open NER</t>
+  </si>
+  <si>
+    <t>ICLR 2024</t>
+  </si>
+  <si>
+    <t>universal-ner.github.io</t>
+  </si>
+  <si>
+    <t>南加州大学</t>
+  </si>
+  <si>
+    <t>利用GPT-3.5从Pile语料中构造NER数据集，同时生成各种不同的NER task instructions</t>
+  </si>
+  <si>
+    <t>收集了43个现有NER数据集，构造了UniNER benchmark</t>
+  </si>
+  <si>
+    <t>Pivoine</t>
+  </si>
+  <si>
+    <t>PIVOINE: Instruction Tuning for Open-world Entity Profiling</t>
+  </si>
+  <si>
+    <t>在zero-shot场景下，LLM很难较好的执行IE任务</t>
+  </si>
+  <si>
+    <t>构造IE任务相关的instruction tuning数据集，加强LLM执行IE任务的能力</t>
+  </si>
+  <si>
+    <t>BLOOM 1B/7B</t>
+  </si>
+  <si>
+    <t>Open-world Entity Profiling</t>
+  </si>
+  <si>
+    <t>从Wikipedia和Wikidata中导出数据集，使用ChatGPT改写获得200多种IE指令</t>
+  </si>
+  <si>
+    <t>https://github.com/Lukeming-tsinghua/Instruction-Tuning-for-Open-world-IE</t>
+  </si>
+  <si>
+    <t>CodeKGC</t>
+  </si>
+  <si>
+    <t>CodeKGC: Code Language Model for Generative Knowledge Graph Construction</t>
+  </si>
+  <si>
+    <t>浙大ZJUNLP</t>
+  </si>
+  <si>
+    <t>用自然语言的形式描述IE任务输出不一致，比较困难</t>
+  </si>
+  <si>
+    <t>使用代码能够更好的描述任务相关信息</t>
+  </si>
+  <si>
+    <t>ACM Transactions on Asian and Low-Resource Language Information Processing</t>
+  </si>
+  <si>
+    <t>RTE: ADE,  CoNLL04, SciERC</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>GoLLIE: Annotation Guidelines improve Zero-Shot Information-Extraction</t>
+  </si>
+  <si>
+    <t>GoLLIE</t>
+  </si>
+  <si>
+    <t>University of the Basque Country</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Code Generation for Universal Information Extraction</t>
+  </si>
+  <si>
+    <t>Code4UIE</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>中科院</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> University of Illinois Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>C-ICL</t>
+  </si>
+  <si>
+    <t>EventRL</t>
+  </si>
+  <si>
+    <t>D-SD</t>
+  </si>
+  <si>
+    <t>gpt-3.5</t>
+  </si>
+  <si>
+    <t>OpenIE</t>
+  </si>
+  <si>
+    <t>OpenIE, RE</t>
+  </si>
+  <si>
+    <t>OpenIE: CaRB
+RE: TACRED</t>
+  </si>
+  <si>
+    <t>Mastering the Task of Open Information Extraction with Large Language Models and Consistent Reasoning Environment</t>
+  </si>
+  <si>
+    <t>作者发现，ChatGPT习惯输出的text和实际的real text之间存在syntactic discrepancy，并且这种差异和GPT预测性能有关</t>
+  </si>
+  <si>
+    <t>Instance-level ICL</t>
+  </si>
+  <si>
+    <t>计算query和示例之间的discrepancy，然后选择差异小的示例的概率更大</t>
+  </si>
+  <si>
+    <t>https://github.com/hitz-zentroa/GoLLIE</t>
+  </si>
+  <si>
+    <t>C-ICL: Contrastive In-context Learning for Information Extraction</t>
+  </si>
+  <si>
+    <t>EventRL: Enhancing Event Extraction with Outcome Supervision for Large Language Models</t>
+  </si>
+  <si>
+    <t>CodeLLaMA 7B/13B/34B</t>
+  </si>
+  <si>
+    <t>text-davinci-002
+text-davinci-003
+gpt-3.5-turbo-16k</t>
+  </si>
+  <si>
+    <t>CodeLLaMA 7B/13B
+LLaMA2 7B/13B</t>
+  </si>
+  <si>
+    <t>Event Extraction</t>
+  </si>
+  <si>
+    <t>EE: ACE05</t>
+  </si>
+  <si>
+    <t>IE任务的困难之一是存在细粒度的guidelines，而LLM不能够很好的follow guidelines</t>
+  </si>
+  <si>
+    <t>使用python class定义label；利用class的继承，表示label之间的联系</t>
+  </si>
+  <si>
+    <t>利用python注释表示guidelines，同时利用instruction tuning训练更适用IE任务的LLM</t>
+  </si>
+  <si>
+    <t>NER, RE, EE</t>
+  </si>
+  <si>
+    <t>训练集是来自于News和Biomedical领域的IE数据集，测试集是其它各个领域IE数据集</t>
+  </si>
+  <si>
+    <t>利用代码来统一表示各个IE任务</t>
+  </si>
+  <si>
+    <t>北航</t>
+  </si>
+  <si>
+    <t>之前LLM的IE方法忽略了对于负样例/错误样例的利用，从负样例中可以学习到为什么会出现这样的错误的相关信息</t>
+  </si>
+  <si>
+    <t>同时利用positive和hard negative samples作为demonstrations</t>
+  </si>
+  <si>
+    <t>采用监督微调LLM适用事件抽取，无法让LLM更好的关注对于细微的事件分类错误的后果</t>
+  </si>
+  <si>
+    <t>利用强化学习，适用性能F1作为奖励</t>
+  </si>
+  <si>
+    <t>Instruction Tuning</t>
+  </si>
+  <si>
+    <t>Uncertainty Demonstration</t>
+  </si>
+  <si>
+    <t>https://github.com/lingchen0331/demonstration_uncertainty</t>
+  </si>
+  <si>
+    <t>Emory University</t>
+  </si>
+  <si>
+    <t>OpenIE: CaRB/OIE2016/ReOIE</t>
+  </si>
+  <si>
+    <t>LLaMA 2
+gpt-3.5-turbo</t>
+  </si>
+  <si>
+    <t>Improving Open Information Extraction with Large Language Models: A Study on Demonstration Uncertainty</t>
+  </si>
+  <si>
+    <t>寻找能够让query输出更加confidence的demonstrations</t>
+  </si>
+  <si>
+    <t>不确定的输出使得LLM抽取出不一样的表达，即使是相同的关键信息</t>
+  </si>
+  <si>
+    <t>UnleashLLMRE</t>
+  </si>
+  <si>
+    <t>LLMaAA</t>
+  </si>
+  <si>
+    <t>LLMaAA: Making Large Language Models as Active Annotators</t>
+  </si>
+  <si>
+    <t>https://github. com/ridiculouz/LLMAAA</t>
+  </si>
+  <si>
+    <t>gpt-3
+gpt-4</t>
+  </si>
+  <si>
+    <t>直接使用LLM到下游任务存在：1）数据泄露风险；2）难以应对大规模或者实时处理的应用</t>
+  </si>
+  <si>
+    <t>利用主动学习策略，每次迭代让LLM标注适合于task model的unlabeled data</t>
+  </si>
+  <si>
+    <t>对应的label</t>
+  </si>
+  <si>
+    <t>bert-base-cased
+chinese-bert-base-wwm</t>
+  </si>
+  <si>
+    <t>NER: CoNLL2003/Chinese OntoNotes 4.0
+RE: Re-TACRED</t>
+  </si>
+  <si>
+    <t>CoT-ER</t>
+  </si>
+  <si>
+    <t>Chain of Thought with Explicit Evidence Reasoning for Few-shot Relation Extraction</t>
+  </si>
+  <si>
+    <t>哈工大深圳</t>
+  </si>
+  <si>
+    <t>在RE任务上对于如何使用LLM的CoT推理能力，还没有过多的探究</t>
+  </si>
+  <si>
+    <t>作者为RE任务下的CoT推理进行了定制，三步推理过程，先推理head/tail entity type相关信息，寻找context text中的evidence；然后推理relation，寻找evidence</t>
+  </si>
+  <si>
+    <t>Corpus-level few-shot ICL</t>
+  </si>
+  <si>
+    <t>RE: FewRel 1.0/FewRel 2.0 (作者在val set上每个label随机采样100个)</t>
+  </si>
+  <si>
+    <t>c-ICL</t>
+  </si>
+  <si>
+    <t>NER, RTE</t>
+  </si>
+  <si>
+    <t>NER: CoNLL03/ACE04/ACE05-E
+RTE: CoNLL04/ACE05-R/NYT/SciERC</t>
+  </si>
+  <si>
+    <t>NER, RTE, EE</t>
+  </si>
+  <si>
+    <t>NER: ACE04/ACE05/CoNLL04
+RTE: ADE/ACE05/CoNLL04/NYT
+EE: ACE05/CASIE</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>NERO</t>
+  </si>
+  <si>
+    <t>NERO: A Neural Rule Grounding Framework for Label-Efficient Relation Extraction</t>
+  </si>
+  <si>
+    <t>https://github.com/INK-USC/NERO</t>
+  </si>
+  <si>
+    <t>WWW 20</t>
+  </si>
+  <si>
+    <t>RE: TACRED/SemEval 2010</t>
+  </si>
+  <si>
+    <t>远程监督会引入很多的噪音</t>
+  </si>
+  <si>
+    <t>训练了一个rule soft matching的model</t>
+  </si>
+  <si>
+    <t>[subj-type, context, obj-type]</t>
+  </si>
+  <si>
+    <t>Rule Generator</t>
+  </si>
+  <si>
+    <t>Exp. setting</t>
+  </si>
+  <si>
+    <t>RoRED</t>
+  </si>
+  <si>
+    <t>RoRED: Bootstrapping labeling rule discovery for robust relation extraction</t>
+  </si>
+  <si>
+    <t>武汉大学</t>
+  </si>
+  <si>
+    <t>labeling rule标注存在错误匹配以及匹配缺失问题</t>
+  </si>
+  <si>
+    <t>Body: {subj-type,obj-type,frequent words}
+Head: 0/1 label, weight</t>
+  </si>
+  <si>
+    <t>(a)NER tool标注entity type
+(b)挖掘频繁子序列</t>
+  </si>
+  <si>
+    <t>RE: Chinese sentence-level personal RE</t>
+  </si>
+  <si>
+    <t>拥有划分出来的small-sized labeled data，剩下的作为unlabeled data</t>
+  </si>
+  <si>
+    <t>TruePIE</t>
+  </si>
+  <si>
+    <t>TruePIE: Discovering Reliable Patterns in Pattern-Based Information Extraction. University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>KDD 18</t>
+  </si>
+  <si>
+    <t>Info. Sci. 23</t>
+  </si>
+  <si>
+    <t>之前的pattern更多的是从content-based criteria来统计，比如frequency。作者提出需要考虑pattern的reliability</t>
+  </si>
+  <si>
+    <t>定义了rules的优先级用于解决冲突</t>
+  </si>
+  <si>
+    <t>提出rule的arity-constraints约束头尾实体数量，并且同时考虑positive和negative rules，认为rule的可靠度就是其预测label的准确度</t>
+  </si>
+  <si>
+    <t>Body: {subj-type,obj-type,frequent words}
+Head: Positive/Negative/Unpredic.</t>
+  </si>
+  <si>
+    <t>基于MetaPAD方法，基于统计的生成rule</t>
+  </si>
+  <si>
+    <t>RE: English Gigaword Fourth Edition LDC2009T13</t>
+  </si>
+  <si>
+    <t>从很少的rule开始，从一个足够大的语料中挖掘rules</t>
+  </si>
+  <si>
+    <t>PRBoost</t>
+  </si>
+  <si>
+    <t>PRBoost: Prompt-Based Rule Discovery and Boosting for Interactive Weakly-Supervised Learning</t>
+  </si>
+  <si>
+    <t>https://github.com/rz-zhang/PRBoost</t>
+  </si>
+  <si>
+    <t>弱监督学习面临的两个问题：1)如何找高质量rules 2)如何解决initial rules中的initial error</t>
+  </si>
+  <si>
+    <t>构造能够创建rule的prompt，人机协同地迭代</t>
+  </si>
+  <si>
+    <t>Body: {subj-type, obj-type, words}
+Head: label</t>
+  </si>
+  <si>
+    <t>KICE: A Knowledge Consolidation and Expansion Framework for Relation Extraction</t>
+  </si>
+  <si>
+    <t>KICE</t>
+  </si>
+  <si>
+    <t>AAAI 2023</t>
+  </si>
+  <si>
+    <t>获取更多标注数据，人们常常依赖于外部knowledge source，但是都有各自的问题</t>
+  </si>
+  <si>
+    <t>把rules看做是一种能够在多个knowledge source之间进行信息传递的可解释的形式，同时还能够提供weak labels的方法</t>
+  </si>
+  <si>
+    <t>作者定义rule是包括entity pattern、relation pattern，label，threshold和similarity function在内</t>
+  </si>
+  <si>
+    <t>1. 整个training set作为unlabeled data
+2. 构造rule，人工标注rule对应的 label
+3. rule匹配的data作为初始labeled set，剩下的作为unlabeled data</t>
+  </si>
+  <si>
+    <t>(a) 基于RoBERTa-base填充prompt，构造rule
+(b) 结合人工标注新rule</t>
+  </si>
+  <si>
+    <t>(a) P-tuning一个PLM
+(b) 让PLM填充prompt
+(c) 人工标注confusing data，然后总结rule</t>
+  </si>
+  <si>
+    <t>(a)NER tool标注entity type
+(b)两个entity之间的words作为context
+(c) 初始rule的label由人工标注</t>
+  </si>
+  <si>
+    <t>Boostrapping rule</t>
+  </si>
+  <si>
+    <t>Bootstrapping Neural Relation and Explanation Classifiers</t>
+  </si>
+  <si>
+    <t>RE: TACRED/Re-TACRED</t>
+  </si>
+  <si>
+    <t>https://github.com/clulab/releases/tree/</t>
+  </si>
+  <si>
+    <t>University of Arizona</t>
+  </si>
+  <si>
+    <t>(a)基于explanation classifier的输出，识别rule的trigger
+(b)基于relation classifier的输出，给rule赋值</t>
+  </si>
+  <si>
+    <t>neuro-symbolic+boostrapping</t>
+  </si>
+  <si>
+    <t>作者定义的rule是之前的工作，结合surface pattern和syntactic rule</t>
+  </si>
+  <si>
+    <t>1. 一开始没有训练集
+2. 人工为每个label编写7个rules，然后创建匹配的labeled data
+3. 剩下未匹配的作为unlabeled data</t>
+  </si>
+  <si>
+    <t>Rule Matcher</t>
+  </si>
+  <si>
+    <t>作者训练的soft rule matcher，计算rule和sentence的embedding，计算相似度</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>基于rule和sentence的words构造graph，基于随机游走进行匹配</t>
+  </si>
+  <si>
+    <t>1) 直接计算rule和sentence embedding相似度
+2) 利用rule generator处理sentence，生成候选rule words，计算相似度</t>
+  </si>
+  <si>
+    <t>推测是hard matching</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>Reasoning Makes Good Annotators : An Automatic Task-specific Rules Distilling Framework for Low-resource Relation Extraction</t>
+  </si>
+  <si>
+    <t>之前利用PLM生成rule的方法没有较好的考虑reasoning，可解释性更低</t>
+  </si>
+  <si>
+    <t>考虑4种不同的rule prompt</t>
+  </si>
+  <si>
+    <t>包括entity type，和entity之间的reasoning relationship</t>
+  </si>
+  <si>
+    <t>a) 基于RoBERT-base填充prompt，构造rule premise
+b) 穷举rule的组合
+c) 输入RoBERT-base，判断rule premise和label是否对应</t>
+  </si>
+  <si>
+    <t>1) 利用rule generator来生成unlabeled sample的pattern words
+2)和rule的pattern words计算余弦相似度</t>
+  </si>
+  <si>
+    <t>1) 利用rule generator来生成unlabeled sample的pattern words
+2) 利用BERT word embedding去表示pattern words，以平均作为总体的表征，然后计算余弦相似度</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
+    <t>RE: SemEval 2010</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/automatic-rule-induction</t>
+  </si>
+  <si>
+    <t>hard matching</t>
+  </si>
+  <si>
+    <t>(a) 基于linear model
+(b) 基于decision tree</t>
+  </si>
+  <si>
+    <t>Automatic Rule Induction for Efficient Semi-Supervised Learning</t>
+  </si>
+  <si>
+    <t>单纯的神经网络缺乏解释性，同时有时是unreliable的</t>
+  </si>
+  <si>
+    <t>rule的预测结果和BERT RE model的预测结果协同训练</t>
+  </si>
+  <si>
+    <t>Body: trigger words
+Head: label</t>
+  </si>
+  <si>
+    <t>1. 5%的训练集作为labeled data
+2. 剩下95%的作为unlabeled data
+3. 验证集也随机采样得到相似数量</t>
+  </si>
+  <si>
+    <t>在SemEval数据集上
+1. 从500个训练数据上归纳guidelines
+2. 在1000个测试样例上测试</t>
+  </si>
+  <si>
+    <t>1. 训练/验证集8-shot/16-shot
+2. 全部测试集</t>
+  </si>
+  <si>
+    <t>1. 0-shot
+2. 只有entity-type mapping的relation会被选择
+3.测试集只有1000个</t>
+  </si>
+  <si>
+    <t>利用LLM生成为什么选择某个relation而不是另一个相似relation的contrastive rationales，然后使用这个rationales基于多任务训练SLM (T5-base-lm-adapt)</t>
+  </si>
+  <si>
+    <t>GPT-RE</t>
+  </si>
+  <si>
+    <t>GPT-RE: In-context Learning for Relation Extraction using Large Language Models</t>
+  </si>
+  <si>
+    <t>LLM寻找demonstrations的时候，1）忽略了entity和relation的语义；2）无法很好处理NULL关系</t>
+  </si>
+  <si>
+    <t>1）找demonstrations时候，增强entity和relation的embedding；2）在demonstrations中加入推理过程</t>
+  </si>
+  <si>
+    <t>few-shot ICL</t>
+  </si>
+  <si>
+    <t>1. 使用全部的训练集
+2. 对于TACRED和ACE05测试集采样子集评估</t>
+  </si>
+  <si>
+    <t>RE: TACRED/SemEval 2010/SciERC/ACE05</t>
+  </si>
+  <si>
+    <t>https://github.com/YukinoWan/GPT-RE</t>
+  </si>
+  <si>
+    <t>东京大学</t>
+  </si>
+  <si>
+    <t>将LLM作为数据annotator，如何能够尽可能地减少数据标注代价，以及使得下游task model性能尽可能高</t>
+  </si>
+  <si>
+    <t>NER，RE</t>
+  </si>
+  <si>
+    <t>从少量labeled data出发，结合task model的预测性能，从主动学习的角度出发，筛选出适合进行标注的unlabeled data</t>
+  </si>
+  <si>
+    <t>1. 100个labeled data
+2. 标注500个unlabeled data
+3. 在Re-TACRED数据集上，只测试了和person相关的relation</t>
+  </si>
+  <si>
+    <t>NER: CoNLL03/Chinese OntoNotes 4.0
+RE: Re-TACRED</t>
+  </si>
+  <si>
+    <t>1. 5%的训练集作为labeled data，但是保证每个relation都有相同数量
+2. 剩下95%的作为unlabeled data
+3. 每轮迭代取最高confidence 200个unlabeled data
+4. 每轮迭代取最confusing的60个data让人工标注</t>
+  </si>
+  <si>
+    <t>1. 以5%/3%作为seed labeled data
+2. 剩下的50%作为unlabeled data
+3. 每轮迭代取前100个最大规则匹配confidence的unlabeled data
+4. 再次经过过滤后，只有前15个data会用于生成新rules</t>
+  </si>
+  <si>
+    <t>1. 5%的训练集作为labeled data
+2. 剩下的作为unlabeled data
+3. NERO人工标注的rules作为起点
+4. 迭代10轮，每轮会人工标注100个rules
+5. dev数量与training set数量一致</t>
+  </si>
+  <si>
+    <t>1%/10%/100%训练集</t>
+  </si>
+  <si>
+    <t>1. zero-shot场景
+2. 4/8/16/32-shot场景</t>
+  </si>
+  <si>
+    <t>Task model</t>
+  </si>
+  <si>
+    <t>RoBERTa-base</t>
+  </si>
+  <si>
+    <t>LSTM + ATT</t>
+  </si>
+  <si>
+    <t>SpanBERT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1531,19 +2190,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1578,7 +2249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,12 +2332,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1684,6 +2349,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1999,11 +2697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0BBDD-CE05-684E-8935-EAEB397263C2}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2087,13 +2785,13 @@
         <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
@@ -2122,13 +2820,13 @@
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>12</v>
@@ -2157,13 +2855,13 @@
         <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>65</v>
@@ -2192,13 +2890,13 @@
         <v>26</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>25</v>
@@ -2206,13 +2904,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -2239,10 +2937,10 @@
         <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>38</v>
@@ -2271,13 +2969,13 @@
         <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>47</v>
@@ -2306,13 +3004,13 @@
         <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>54</v>
@@ -2322,7 +3020,7 @@
       <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="14"/>
@@ -2330,10 +3028,10 @@
       <c r="E10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="30" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -2343,13 +3041,13 @@
         <v>58</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="L10" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>238</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>47</v>
@@ -2357,119 +3055,119 @@
     </row>
     <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="H11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="J11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="L11" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="M11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="70" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="126" x14ac:dyDescent="0.2">
@@ -2480,10 +3178,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>41</v>
@@ -2492,7 +3190,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>35</v>
@@ -2501,13 +3199,13 @@
         <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>33</v>
@@ -2515,286 +3213,327 @@
     </row>
     <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="98" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="I18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="84" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="J20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="56" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2804,12 +3543,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0D7DB0-3B19-1244-B0D1-A2A1DFEE3D9A}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="16" style="32" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="11"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>616</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="70" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>660</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>664</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="98" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>596</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>628</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="70" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>620</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>627</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566FED72-3A6F-A240-8870-093CCB6D9347}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2819,16 +3964,17 @@
     <col min="3" max="3" width="25.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="20" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="18.1640625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="23.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="36" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="10"/>
+    <col min="12" max="12" width="18.1640625" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="17" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>72</v>
       </c>
@@ -2839,10 +3985,10 @@
         <v>76</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>80</v>
@@ -2850,84 +3996,89 @@
       <c r="G1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>73</v>
       </c>
@@ -2941,435 +4092,704 @@
         <v>79</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>86</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="J5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="L5" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="J14" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="H15" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="20" t="s">
+    </row>
+    <row r="17" spans="1:12" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="23" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J16" s="19" t="s">
+      <c r="G18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="23" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="22" t="s">
-        <v>186</v>
+    </row>
+    <row r="20" spans="1:12" s="38" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="38" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="38" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3378,12 +4798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B762F-C390-9645-A1C0-E62769DF1599}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3394,10 +4814,10 @@
     <col min="3" max="3" width="23.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="22" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17" style="34" customWidth="1"/>
+    <col min="6" max="6" width="17" style="32" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="33" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -3413,10 +4833,10 @@
         <v>76</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>80</v>
@@ -3436,569 +4856,1071 @@
     </row>
     <row r="2" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="J2" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="84" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="84" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>344</v>
+      <c r="I3" s="33" t="s">
+        <v>341</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="126" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F4" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="H4" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>332</v>
+        <v>95</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>329</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>348</v>
+      <c r="I5" s="33" t="s">
+        <v>345</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="98" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="98" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>115</v>
+        <v>95</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>371</v>
-      </c>
       <c r="C8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>370</v>
+        <v>351</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>380</v>
+      <c r="I9" s="33" t="s">
+        <v>377</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>390</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>389</v>
+      <c r="I10" s="33" t="s">
+        <v>386</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="E11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="G11" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="I11" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>403</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="G12" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>413</v>
+        <v>168</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>410</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>410</v>
+        <v>351</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>407</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="I14" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="J14" s="32" t="s">
         <v>415</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="126" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="G15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>433</v>
-      </c>
       <c r="J15" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="98" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>397</v>
+        <v>95</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="F18" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="I19" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="J19" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>460</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7627672C-411D-9242-9479-AF1FECF22BCC}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="8" max="8" width="14.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="8"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D03524-62EF-DE46-A1EE-6A6CA1B93D8A}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="38" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="38" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="34" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/source/_posts/collection/IE方法总结.xlsx
+++ b/source/_posts/collection/IE方法总结.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/liuxiyang641.github.io/source/_posts/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC85F6-BC68-5F41-B1DC-F37B4C1C0E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25791A67-2376-0447-BB62-B46ED2E2B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
   </bookViews>
   <sheets>
     <sheet name="数据增强IE" sheetId="1" r:id="rId1"/>
     <sheet name="Rule-IE" sheetId="6" r:id="rId2"/>
     <sheet name="LLM-IE" sheetId="2" r:id="rId3"/>
-    <sheet name="LLM-DA" sheetId="3" r:id="rId4"/>
-    <sheet name="OpenIE" sheetId="4" r:id="rId5"/>
-    <sheet name="CodeIE" sheetId="5" r:id="rId6"/>
+    <sheet name="LLM-MIE" sheetId="7" r:id="rId4"/>
+    <sheet name="Alignment" sheetId="8" r:id="rId5"/>
+    <sheet name="LLM-DA" sheetId="3" r:id="rId6"/>
+    <sheet name="OpenIE" sheetId="4" r:id="rId7"/>
+    <sheet name="CodeIE" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="768">
   <si>
     <t>Method</t>
   </si>
@@ -2152,6 +2154,311 @@
   </si>
   <si>
     <t>SpanBERT</t>
+  </si>
+  <si>
+    <t>LLM usage</t>
+  </si>
+  <si>
+    <t>Multimodal Question Answering for Unified Information Extraction</t>
+  </si>
+  <si>
+    <t>MQA</t>
+  </si>
+  <si>
+    <t>Flan-T5</t>
+  </si>
+  <si>
+    <t>MRE, MNER, MEE</t>
+  </si>
+  <si>
+    <t>Recognizing Everything from All Modalities at Once: Grounded Multimodal Universal Information Extraction</t>
+  </si>
+  <si>
+    <t>Reamo</t>
+  </si>
+  <si>
+    <t>ACL 2024 Findings</t>
+  </si>
+  <si>
+    <t>https://haofei.vip/MUIE</t>
+  </si>
+  <si>
+    <t>哈工深</t>
+  </si>
+  <si>
+    <t>Vicuna-v1.5</t>
+  </si>
+  <si>
+    <t>LLMs as Bridges: Reformulating Grounded Multimodal Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>RiEVG</t>
+  </si>
+  <si>
+    <t>天大</t>
+  </si>
+  <si>
+    <t>https://github.com/JinYuanLi0012/RiVEG</t>
+  </si>
+  <si>
+    <t>GMNER, MRE, MEE</t>
+  </si>
+  <si>
+    <t>GMNER</t>
+  </si>
+  <si>
+    <t>GEM</t>
+  </si>
+  <si>
+    <t>Granular Entity Mapper: Advancing Fine-grained Multimodal Named Entity Recognition and Grounding</t>
+  </si>
+  <si>
+    <t>EMNLP 2024 Findings</t>
+  </si>
+  <si>
+    <t>Shap-CA</t>
+  </si>
+  <si>
+    <t>Shapley Value-based Contrastive Alignment for Multimodal Information Extraction</t>
+  </si>
+  <si>
+    <t>InstructBLIP</t>
+  </si>
+  <si>
+    <t>ACM MM 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LLaVA</t>
+  </si>
+  <si>
+    <t>MNER, MRE, MJERE</t>
+  </si>
+  <si>
+    <t>UMIE</t>
+  </si>
+  <si>
+    <t>UMIE: Unified Multimodal Information Extraction with Instruction Tuning</t>
+  </si>
+  <si>
+    <t>杭州城市大学</t>
+  </si>
+  <si>
+    <t>AAAI 2024</t>
+  </si>
+  <si>
+    <t>Fine-tuned IE model</t>
+  </si>
+  <si>
+    <t>IE model</t>
+  </si>
+  <si>
+    <t>Twitter-15, Twitter-17, MNRE-V1, MNRE-V2, M2E2</t>
+  </si>
+  <si>
+    <t>https://github.com/ZUCC-AI/UMIE</t>
+  </si>
+  <si>
+    <t>1. 提供额外解释 
+2. 将entity转化为描述句子</t>
+  </si>
+  <si>
+    <t>1. 提供额外解释 
+2. 对entity type进一步确认</t>
+  </si>
+  <si>
+    <t>Image caption model</t>
+  </si>
+  <si>
+    <t>CoT-MIE</t>
+  </si>
+  <si>
+    <t>Chain-of-Thought Prompt Distillation for Multimodal Named Entity Recognition and Multimodal Relation Extraction</t>
+  </si>
+  <si>
+    <t>ChatGPT, GPT-4</t>
+  </si>
+  <si>
+    <t>ChatGPT, LLaVA</t>
+  </si>
+  <si>
+    <t>ChatGPT, vicuna, llama-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twitter-15, Twitter-17, Wiki, Twitter-SNAP, MNRE </t>
+  </si>
+  <si>
+    <t>MRE, MNER</t>
+  </si>
+  <si>
+    <t>Ant group</t>
+  </si>
+  <si>
+    <t>PGIM</t>
+  </si>
+  <si>
+    <t>Prompt ChatGPT In MNER: Improved multimodal named entity recognition method based on auxiliary refining knowledge from ChatGPT</t>
+  </si>
+  <si>
+    <t>https://github.com/OSU-NLP-Group/MQA</t>
+  </si>
+  <si>
+    <t>arXiv 2023</t>
+  </si>
+  <si>
+    <t>自己构建的基于现有数据集的benchmark</t>
+  </si>
+  <si>
+    <t>GMNER, FMNERG</t>
+  </si>
+  <si>
+    <t>提供额外的CoT解释</t>
+  </si>
+  <si>
+    <t>识别entity并给出解释</t>
+  </si>
+  <si>
+    <t>MNER</t>
+  </si>
+  <si>
+    <t>Twitter-15, Twitter-17</t>
+  </si>
+  <si>
+    <t>Generative Multimodal Data Augmentation for Low-Resource Multimodal Named Entity Recognition</t>
+  </si>
+  <si>
+    <t>GMDA</t>
+  </si>
+  <si>
+    <t>GMNER, MNER</t>
+  </si>
+  <si>
+    <t>Twitter-15, GMNER, FMNERG</t>
+  </si>
+  <si>
+    <t>Text data generator</t>
+  </si>
+  <si>
+    <t>https://github.com/NUSTM/GMDA</t>
+  </si>
+  <si>
+    <t>南京科大</t>
+  </si>
+  <si>
+    <t>Twitter-15, Twitter-17, MNRE, MJERE</t>
+  </si>
+  <si>
+    <t>CAMIM</t>
+  </si>
+  <si>
+    <t>Caption-Aware Multimodal Relation Extraction with Mutual Information Maximization</t>
+  </si>
+  <si>
+    <t>吉大</t>
+  </si>
+  <si>
+    <t>https://github.com/zefanZhang-cn/CAMIM</t>
+  </si>
+  <si>
+    <t>MNRE</t>
+  </si>
+  <si>
+    <t>InstructBLIP, LLaVA-NeXT, QWenVL-Plus, CogVLM2, MiniCPM V2.5</t>
+  </si>
+  <si>
+    <t>MRE</t>
+  </si>
+  <si>
+    <t>对齐策略</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Grounded Multimodal Named Entity Recognition on Social Media</t>
+  </si>
+  <si>
+    <t>每个entity输出grounding embedding，与object embedding计算相似度</t>
+  </si>
+  <si>
+    <t>TIGER</t>
+  </si>
+  <si>
+    <t>Fine-Grained Multimodal Named Entity Recognition and Grounding with a Generative Framework</t>
+  </si>
+  <si>
+    <t>每个实体输出"in the image"的embedding，与object embedding计算相似度</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>Prompt Me Up: Unleashing the Power of Alignments for Multimodal Entity and Relation Extraction</t>
+  </si>
+  <si>
+    <t>multimodal pretraining</t>
+  </si>
+  <si>
+    <t>外部数据预训练阶段，计算text-image，entity-object，relation-image的对齐对比损失。单模态输出构造伪标注</t>
+  </si>
+  <si>
+    <t>多模态预训练，模态间转化的训练任务，模型可能实现隐式的将不同模态的表征对齐</t>
+  </si>
+  <si>
+    <t>RiVEG</t>
+  </si>
+  <si>
+    <t>SCANNER: Knowledge-Enhanced Approach for Robust Multi-modal Named Entity Recognition of Unseen Entities</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORE: A Multimodal Object-Entity Relation Extraction Dataset with a Benchmark </t>
+  </si>
+  <si>
+    <t>MORE</t>
+  </si>
+  <si>
+    <t>Focus &amp; Gating: A Multimodal Approach for Unveiling Relations in Noisy Social Media</t>
+  </si>
+  <si>
+    <t>FocalMRE</t>
+  </si>
+  <si>
+    <t>attention融合image和text</t>
+  </si>
+  <si>
+    <t>对比损失对齐image caption和image、image caption和text</t>
+  </si>
+  <si>
+    <t>将image转化为caption、object转化为caption，然后与text一起处理。输出"[obj]" token用于计算object对entity匹配度</t>
+  </si>
+  <si>
+    <t>attention融合image和text；image会转化为caption，判断entity是否在caption中出现。调用外部模型学会entity grounding</t>
+  </si>
+  <si>
+    <t>ISE-MRE</t>
+  </si>
+  <si>
+    <t>Information Screening whilst Exploiting! Multimodal Relation Extraction with Feature Denoising and Multimodal Topic Modeling</t>
+  </si>
+  <si>
+    <t>利用graph融合image和text，对graph进行剪枝</t>
+  </si>
+  <si>
+    <t>TMR</t>
+  </si>
+  <si>
+    <t>Rethinking Multimodal Entity and Relation Extraction from a Translation Point of View</t>
+  </si>
+  <si>
+    <t>CAG: A Consistency-Adaptive Text-Image Alignment Generation for Joint Multimodal Entity-Relation Extraction</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>利用对比损失让强一致的图文对更加靠近；让弱一致的图文对相对不那么靠近</t>
   </si>
 </sst>
 </file>
@@ -2249,7 +2556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,6 +2689,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2699,9 +3009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0BBDD-CE05-684E-8935-EAEB397263C2}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3546,9 +3856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0D7DB0-3B19-1244-B0D1-A2A1DFEE3D9A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="E1" zoomScale="135" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3953,8 +4263,8 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4799,6 +5109,598 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965AFAB3-9654-2D4E-9A70-686230FAF78A}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="40.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC637ED6-E016-5847-9B1C-0D4FBA3BFC1B}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="216" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B762F-C390-9645-A1C0-E62769DF1599}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -5426,7 +6328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7627672C-411D-9242-9479-AF1FECF22BCC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -5627,7 +6529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D03524-62EF-DE46-A1EE-6A6CA1B93D8A}">
   <dimension ref="A1:K8"/>
   <sheetViews>

--- a/source/_posts/collection/IE方法总结.xlsx
+++ b/source/_posts/collection/IE方法总结.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiyang/myData/python-project/liuxiyang641.github.io/source/_posts/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25791A67-2376-0447-BB62-B46ED2E2B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FD9FF-4A64-9D4E-9CC1-ED414B9186AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3BF97032-C3D5-3B4A-809E-2DB24E65EDE5}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="OpenIE" sheetId="4" r:id="rId7"/>
     <sheet name="CodeIE" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3009,9 +3009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A0BBDD-CE05-684E-8935-EAEB397263C2}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3022,7 @@
     <col min="5" max="5" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="4" customWidth="1"/>
     <col min="7" max="7" width="23" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.6640625" style="3" customWidth="1"/>
@@ -4263,8 +4263,8 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5113,7 +5113,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5704,7 +5704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08B762F-C390-9645-A1C0-E62769DF1599}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
